--- a/SP_Sklad/TempLate/AnaliticsManufacture.xlsx
+++ b/SP_Sklad/TempLate/AnaliticsManufacture.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="MatList">Лист1!$A$8:$N$11</definedName>
@@ -172,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,7 +609,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -646,7 +643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -822,7 +818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:N10"/>
   <sheetViews>
@@ -831,7 +827,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -848,7 +844,7 @@
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="B1" s="19" t="s">
         <v>9</v>
       </c>
@@ -861,7 +857,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="2:14" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" s="3" customFormat="1" ht="10.5" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -872,7 +868,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -889,7 +885,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -906,7 +902,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -915,7 +911,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
@@ -954,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B7" s="27">
         <v>1</v>
       </c>
@@ -993,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1">
       <c r="B8" s="22" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
@@ -1011,7 +1007,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="11" t="e">
@@ -1059,7 +1055,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18" customHeight="1" collapsed="1">
       <c r="B10" s="26" t="e">
         <f>B8</f>
         <v>#NAME?</v>
@@ -1114,32 +1110,4 @@
     <brk id="14" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>